--- a/Project Management/Risk Mitigation plan.xlsx
+++ b/Project Management/Risk Mitigation plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\Year 3\GDIP\Github\GDIP_ROBOT\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC6AF43-4DA7-4C92-9101-2617712B9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8F1BED-5020-4C09-B415-5069FD84E193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PID" sheetId="2" r:id="rId1"/>
@@ -519,6 +519,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,15 +560,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,770 +904,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6623F95-A144-420B-860F-B2F0655A949A}">
-  <dimension ref="C1:P30"/>
+  <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="120.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="120.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="K2" s="16" t="s">
+      <c r="H2" s="4"/>
+      <c r="J2" s="16" t="s">
         <v>1</v>
       </c>
+      <c r="K2" s="17" t="s">
+        <v>2</v>
+      </c>
       <c r="L2" s="17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
       <c r="D3">
+        <f ca="1">D8*$D3</f>
         <v>5</v>
       </c>
       <c r="E3">
-        <f ca="1">E8*$E3</f>
+        <f ca="1">E8*$D3</f>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f ca="1">F8*$D3</f>
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <f ca="1">G8*$D3</f>
+        <v>20</v>
+      </c>
+      <c r="H3" s="6">
+        <f ca="1">H8*$D3</f>
+        <v>25</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="20">
         <v>5</v>
-      </c>
-      <c r="F3">
-        <f ca="1">F8*$E3</f>
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <f ca="1">G8*$E3</f>
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <f ca="1">H8*$E3</f>
-        <v>20</v>
-      </c>
-      <c r="I3" s="6">
-        <f ca="1">I8*$E3</f>
-        <v>25</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>7</v>
       </c>
       <c r="M3" s="20">
         <v>5</v>
       </c>
       <c r="N3" s="20">
-        <v>5</v>
-      </c>
-      <c r="O3" s="20">
-        <f>M3*N3</f>
+        <f>L3*M3</f>
         <v>25</v>
       </c>
-      <c r="P3" s="21"/>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
       <c r="D4">
+        <f ca="1">D8*$D4</f>
         <v>4</v>
       </c>
       <c r="E4">
-        <f ca="1">E8*$E4</f>
-        <v>4</v>
+        <f ca="1">E8*$D4</f>
+        <v>8</v>
       </c>
       <c r="F4">
-        <f ca="1">F8*$E4</f>
-        <v>8</v>
+        <f ca="1">F8*$D4</f>
+        <v>12</v>
       </c>
       <c r="G4">
-        <f ca="1">G8*$E4</f>
+        <f ca="1">G8*$D4</f>
+        <v>16</v>
+      </c>
+      <c r="H4" s="6">
+        <f ca="1">H8*$D4</f>
+        <v>20</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20">
+        <f>L4*M4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f ca="1">D8*$D5</f>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f ca="1">E8*$D5</f>
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <f ca="1">F8*$D5</f>
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <f ca="1">G8*$D5</f>
         <v>12</v>
       </c>
-      <c r="H4">
-        <f ca="1">H8*$E4</f>
-        <v>16</v>
-      </c>
-      <c r="I4" s="6">
-        <f ca="1">I8*$E4</f>
-        <v>20</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20">
-        <f>M4*N4</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="21"/>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <f ca="1">E8*$E5</f>
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <f ca="1">F8*$E5</f>
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <f ca="1">G8*$E5</f>
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <f ca="1">H8*$E5</f>
-        <v>12</v>
-      </c>
-      <c r="I5" s="6">
-        <f ca="1">I8*$E5</f>
+      <c r="H5" s="6">
+        <f ca="1">H8*$D5</f>
         <v>15</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="J5" s="22" t="s">
         <v>10</v>
       </c>
+      <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="D6">
+        <f ca="1">D8*$D6</f>
         <v>2</v>
       </c>
       <c r="E6">
-        <f ca="1">E8*$E6</f>
+        <f ca="1">E8*$D6</f>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f ca="1">F8*$D6</f>
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <f ca="1">G8*$D6</f>
+        <v>8</v>
+      </c>
+      <c r="H6" s="6">
+        <f ca="1">H8*$D6</f>
+        <v>10</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="20">
+        <v>5</v>
+      </c>
+      <c r="M6" s="20">
+        <v>1</v>
+      </c>
+      <c r="N6" s="20">
+        <f>M6*L6</f>
+        <v>5</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f ca="1">D8*$D7</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f ca="1">E8*$D7</f>
         <v>2</v>
       </c>
-      <c r="F6">
-        <f ca="1">F8*$E6</f>
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <f ca="1">G8*$E6</f>
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <f ca="1">H8*$E6</f>
-        <v>8</v>
-      </c>
-      <c r="I6" s="6">
-        <f ca="1">I8*$E6</f>
-        <v>10</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="20">
+      <c r="F7">
+        <f ca="1">F8*$D7</f>
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f ca="1">G8*$D7</f>
+        <v>4</v>
+      </c>
+      <c r="H7" s="6">
+        <f ca="1">H8*$D7</f>
         <v>5</v>
       </c>
-      <c r="N6" s="20">
-        <v>1</v>
-      </c>
-      <c r="O6" s="20">
-        <f>N6*M6</f>
-        <v>5</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f ca="1">E8*$E7</f>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f ca="1">F8*$E7</f>
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <f ca="1">G8*$E7</f>
+      <c r="J7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="20">
         <v>3</v>
-      </c>
-      <c r="H7">
-        <f ca="1">H8*$E7</f>
-        <v>4</v>
-      </c>
-      <c r="I7" s="6">
-        <f ca="1">I8*$E7</f>
-        <v>5</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>16</v>
       </c>
       <c r="M7" s="20">
         <v>3</v>
       </c>
       <c r="N7" s="20">
+        <f>L7*M7</f>
+        <v>9</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="O7" s="20">
-        <f>M7*N7</f>
-        <v>9</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
       <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8" s="6">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6">
         <v>5</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="J8" s="22" t="s">
         <v>18</v>
       </c>
+      <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="21"/>
-    </row>
-    <row r="9" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="J9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="K9" s="25" t="s">
         <v>25</v>
       </c>
+      <c r="L9" s="20">
+        <v>5</v>
+      </c>
       <c r="M9" s="20">
+        <v>1</v>
+      </c>
+      <c r="N9" s="20">
+        <f>L9*M9</f>
         <v>5</v>
       </c>
-      <c r="N9" s="20">
+      <c r="O9" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="20">
+        <v>4</v>
+      </c>
+      <c r="M10" s="20">
         <v>1</v>
       </c>
-      <c r="O9" s="20">
-        <f>M9*N9</f>
-        <v>5</v>
-      </c>
-      <c r="P9" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="K10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="20">
-        <v>4</v>
-      </c>
       <c r="N10" s="20">
+        <f>L10*M10</f>
+        <v>4</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="20">
+        <v>2</v>
+      </c>
+      <c r="M11" s="20">
+        <v>3</v>
+      </c>
+      <c r="N11" s="20">
+        <f>L11*M11</f>
+        <v>6</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="J12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="20">
+        <v>4</v>
+      </c>
+      <c r="M12" s="20">
         <v>1</v>
       </c>
-      <c r="O10" s="20">
-        <f>M10*N10</f>
-        <v>4</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K11" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="20">
-        <v>2</v>
-      </c>
-      <c r="N11" s="20">
-        <v>3</v>
-      </c>
-      <c r="O11" s="20">
-        <f>M11*N11</f>
-        <v>6</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="K12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="20">
-        <v>4</v>
-      </c>
       <c r="N12" s="20">
-        <v>1</v>
-      </c>
-      <c r="O12" s="20">
-        <v>4</v>
-      </c>
-      <c r="P12" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="C13" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="K13" s="22" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="J13" s="22" t="s">
         <v>36</v>
       </c>
+      <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="21"/>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="K14" s="24" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="J14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="K14" s="25" t="s">
         <v>40</v>
       </c>
+      <c r="L14" s="20">
+        <v>4</v>
+      </c>
       <c r="M14" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N14" s="20">
+        <f>L14*M14</f>
+        <v>4</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="J15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="20">
+        <v>4</v>
+      </c>
+      <c r="M15" s="20">
         <v>1</v>
       </c>
-      <c r="O14" s="20">
-        <f>M14*N14</f>
-        <v>4</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="K15" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="20">
-        <v>4</v>
-      </c>
       <c r="N15" s="20">
-        <v>1</v>
-      </c>
-      <c r="O15" s="20">
-        <f>M15*N15</f>
-        <v>4</v>
-      </c>
-      <c r="P15" s="26" t="s">
+        <f>L15*M15</f>
+        <v>4</v>
+      </c>
+      <c r="O15" s="26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="15" t="s">
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="K16" s="22" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="J16" s="22" t="s">
         <v>49</v>
       </c>
+      <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="K17" s="24" t="s">
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="K17" s="25" t="s">
         <v>51</v>
       </c>
+      <c r="L17" s="20">
+        <v>3</v>
+      </c>
       <c r="M17" s="20">
+        <v>1</v>
+      </c>
+      <c r="N17" s="20">
+        <f>L17*M17</f>
         <v>3</v>
       </c>
-      <c r="N17" s="20">
+      <c r="O17" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J18" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="20">
+        <v>3</v>
+      </c>
+      <c r="M18" s="20">
         <v>1</v>
       </c>
-      <c r="O17" s="20">
-        <f>M17*N17</f>
+      <c r="N18" s="20">
+        <f>L18*M18</f>
         <v>3</v>
       </c>
-      <c r="P17" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="K18" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="20">
-        <v>3</v>
-      </c>
-      <c r="N18" s="20">
+      <c r="O18" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="20">
+        <v>4</v>
+      </c>
+      <c r="M19" s="20">
         <v>1</v>
       </c>
-      <c r="O18" s="20">
-        <f>M18*N18</f>
-        <v>3</v>
-      </c>
-      <c r="P18" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="20">
-        <v>4</v>
-      </c>
       <c r="N19" s="20">
-        <v>1</v>
-      </c>
-      <c r="O19" s="20">
-        <f>M19*N19</f>
-        <v>4</v>
-      </c>
-      <c r="P19" s="26" t="s">
+        <f>L19*M19</f>
+        <v>4</v>
+      </c>
+      <c r="O19" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="34" t="s">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="K20" s="22" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="J20" s="22" t="s">
         <v>59</v>
       </c>
+      <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="F21" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="G21" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="J21" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="K21" s="25" t="s">
         <v>61</v>
       </c>
+      <c r="L21" s="20">
+        <v>5</v>
+      </c>
       <c r="M21" s="20">
+        <v>1</v>
+      </c>
+      <c r="N21" s="20">
+        <f>L21*M21</f>
         <v>5</v>
       </c>
-      <c r="N21" s="20">
-        <v>1</v>
-      </c>
-      <c r="O21" s="20">
-        <f>M21*N21</f>
-        <v>5</v>
-      </c>
-      <c r="P21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="33" t="s">
+    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="F22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="24" t="s">
+      <c r="J22" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="K22" s="25" t="s">
         <v>64</v>
       </c>
+      <c r="L22" s="20">
+        <v>3</v>
+      </c>
       <c r="M22" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" s="20">
-        <v>4</v>
-      </c>
-      <c r="O22" s="20">
-        <f>M22*N22</f>
+        <f>L22*M22</f>
         <v>12</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="O22" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="K23" s="22" t="s">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J23" s="22" t="s">
         <v>66</v>
       </c>
+      <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="21"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="K24" s="24" t="s">
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J24" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="K24" s="25" t="s">
         <v>68</v>
       </c>
+      <c r="L24" s="20">
+        <v>5</v>
+      </c>
       <c r="M24" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N24" s="20">
-        <v>2</v>
-      </c>
-      <c r="O24" s="20">
-        <f>M24*N24</f>
+        <f>L24*M24</f>
         <v>10</v>
       </c>
-      <c r="P24" s="21" t="s">
+      <c r="O24" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="28" t="s">
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="L25" s="29" t="s">
+      <c r="K25" s="29" t="s">
         <v>71</v>
       </c>
+      <c r="L25" s="23">
+        <v>4</v>
+      </c>
       <c r="M25" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" s="23">
-        <v>3</v>
-      </c>
-      <c r="O25" s="23">
-        <f>M25*N25</f>
+        <f>L25*M25</f>
         <v>12</v>
       </c>
-      <c r="P25" s="30" t="s">
+      <c r="O25" s="30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f>M27*N27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <f>M28*N28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30" s="1">
-        <v>4</v>
-      </c>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:I7">
+  <conditionalFormatting sqref="D3:H7">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -1679,7 +1639,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O27:O28 O3:O25">
+  <conditionalFormatting sqref="N27:N28 N3:N25">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -1691,17 +1651,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
+  <conditionalFormatting sqref="B20:B22">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Partial">
-      <formula>NOT(ISERROR(SEARCH("Partial",C20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Partial",B20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Full">
-      <formula>NOT(ISERROR(SEARCH("Full",C20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Full",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
+  <conditionalFormatting sqref="B20:B22">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("None",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
